--- a/verbal_answers.xlsx
+++ b/verbal_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA8D707-D234-4436-AE87-5817629A8EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A220FCD-83F0-427B-9E90-505F1EB79ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="51-100" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
   <si>
     <t>D</t>
   </si>
@@ -58,9 +59,6 @@
     <t>答案</t>
   </si>
   <si>
-    <t>错误原因</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -110,6 +108,165 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>ADG</t>
+  </si>
+  <si>
+    <t>错误原因/注意事项</t>
+  </si>
+  <si>
+    <t>同义词，句子里的同义词也要注意</t>
+  </si>
+  <si>
+    <t>没理解句意</t>
+  </si>
+  <si>
+    <t>看错了单词</t>
+  </si>
+  <si>
+    <t>Section 53</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CEH</t>
+  </si>
+  <si>
+    <t>AEI</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>打错字了</t>
+  </si>
+  <si>
+    <t>没理解逻辑</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+  </si>
+  <si>
+    <t>Secrtion 54</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>单词不准确</t>
+  </si>
+  <si>
+    <t>Section 55</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>ADH</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>AEG</t>
+  </si>
+  <si>
+    <t>Section 56</t>
+  </si>
+  <si>
+    <t>BFI</t>
+  </si>
+  <si>
+    <t>unqualified还有绝对的意思</t>
+  </si>
+  <si>
+    <t>Section 57</t>
+  </si>
+  <si>
+    <t>Section 58</t>
+  </si>
+  <si>
+    <t>BFG</t>
+  </si>
+  <si>
+    <t>单词，逻辑</t>
+  </si>
+  <si>
+    <t>Section 59</t>
+  </si>
+  <si>
+    <t>BEI</t>
+  </si>
+  <si>
+    <t>Section 60</t>
+  </si>
+  <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>Section 61</t>
+  </si>
+  <si>
+    <t>BEH</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Section 62</t>
+  </si>
+  <si>
+    <t>逻辑，单词</t>
+  </si>
+  <si>
+    <t>Section 63</t>
+  </si>
+  <si>
+    <t>Section 64</t>
+  </si>
+  <si>
+    <t>AFH</t>
+  </si>
+  <si>
+    <t>Section 65</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>Section 66</t>
+  </si>
+  <si>
+    <t>Section 67</t>
+  </si>
+  <si>
+    <t>Section 68</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>逻辑，应该去找对应词</t>
+  </si>
+  <si>
+    <t>Section 69</t>
   </si>
 </sst>
 </file>
@@ -441,10 +598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562F1CC6-38A4-4B17-8E3B-6BAB37AC0C54}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -478,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -489,13 +646,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -506,10 +663,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -528,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -566,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -582,7 +739,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -590,7 +747,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,15 +761,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -617,52 +777,1758 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
         <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>38</v>
+      </c>
+      <c r="D153" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>64</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>37</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>47</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" t="s">
+        <v>71</v>
+      </c>
+      <c r="D188" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>9</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>43</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>43</v>
+      </c>
+      <c r="C196" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>3</v>
+      </c>
+      <c r="B197" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" t="s">
+        <v>44</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" t="s">
+        <v>34</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>43</v>
+      </c>
+      <c r="D207" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" t="s">
+        <v>38</v>
+      </c>
+      <c r="D209" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>76</v>
+      </c>
+      <c r="C212" t="s">
+        <v>77</v>
+      </c>
+      <c r="D212" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" t="s">
+        <v>38</v>
+      </c>
+      <c r="D215" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>8</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/verbal_answers.xlsx
+++ b/verbal_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A220FCD-83F0-427B-9E90-505F1EB79ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C664CFE4-D7AC-49CC-8B99-4303382F7288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="51-100" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="81">
   <si>
     <t>D</t>
   </si>
@@ -267,6 +266,9 @@
   </si>
   <si>
     <t>Section 69</t>
+  </si>
+  <si>
+    <t>Section 70</t>
   </si>
 </sst>
 </file>
@@ -598,10 +600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562F1CC6-38A4-4B17-8E3B-6BAB37AC0C54}">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2482,6 +2484,9 @@
       <c r="B222" t="s">
         <v>47</v>
       </c>
+      <c r="C222" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
@@ -2499,7 +2504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>7</v>
       </c>
@@ -2507,15 +2512,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>8</v>
       </c>
       <c r="B226" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C226" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>9</v>
       </c>
@@ -2523,12 +2531,109 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>10</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>36</v>
+      </c>
+      <c r="C235" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>8</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
